--- a/web/characterdata.xlsx
+++ b/web/characterdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Bulbasaur</t>
   </si>
@@ -216,6 +216,9 @@
   </si>
   <si>
     <t>Kunoichi</t>
+  </si>
+  <si>
+    <t>dfsdfsd</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +549,7 @@
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -566,7 +569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -586,7 +589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -606,7 +609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -626,7 +629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -645,8 +648,11 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -666,7 +672,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -686,7 +692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -706,7 +712,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -726,7 +732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -746,7 +752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -766,7 +772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -786,7 +792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -806,7 +812,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -826,7 +832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -846,7 +852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>

--- a/web/characterdata.xlsx
+++ b/web/characterdata.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>Bulbasaur</t>
   </si>
@@ -218,7 +218,28 @@
     <t>Kunoichi</t>
   </si>
   <si>
-    <t>dfsdfsd</t>
+    <t>users</t>
+  </si>
+  <si>
+    <t>FireUser</t>
+  </si>
+  <si>
+    <t>WaterUser</t>
+  </si>
+  <si>
+    <t>NormalUser</t>
+  </si>
+  <si>
+    <t>PsychicUser</t>
+  </si>
+  <si>
+    <t>RockUser</t>
+  </si>
+  <si>
+    <t>PoisonUser</t>
+  </si>
+  <si>
+    <t>DragonUser</t>
   </si>
 </sst>
 </file>
@@ -536,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,9 +568,10 @@
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -568,8 +590,11 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -588,8 +613,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -608,8 +636,11 @@
       <c r="F3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -628,8 +659,11 @@
       <c r="F4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -648,11 +682,11 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -671,8 +705,11 @@
       <c r="F6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -691,8 +728,11 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -711,8 +751,11 @@
       <c r="F8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -732,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -752,7 +795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -772,7 +815,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -792,7 +835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -812,7 +855,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -832,7 +875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -852,7 +895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
